--- a/financials/PolicyEngine_Pritzker_Budget.xlsx
+++ b/financials/PolicyEngine_Pritzker_Budget.xlsx
@@ -1522,10 +1522,14 @@
       <c r="C1" s="144" t="n"/>
       <c r="E1" s="2" t="inlineStr">
         <is>
+          <t>YEAR 1 DATES</t>
+        </is>
+      </c>
+      <c r="F1" s="118" t="inlineStr">
+        <is>
           <t>11/01/2025 to 10/31/2026</t>
         </is>
       </c>
-      <c r="F1" s="118" t="inlineStr"/>
       <c r="G1" s="144" t="n"/>
     </row>
     <row r="2">
@@ -1536,7 +1540,11 @@
       </c>
       <c r="B2" s="146" t="n"/>
       <c r="C2" s="147" t="n"/>
-      <c r="E2" s="4" t="inlineStr"/>
+      <c r="E2" s="4" t="inlineStr">
+        <is>
+          <t>YEAR 2 DATES</t>
+        </is>
+      </c>
       <c r="F2" s="120" t="inlineStr"/>
       <c r="G2" s="147" t="n"/>
     </row>
@@ -1553,11 +1561,7 @@
           <t>YEAR 3 DATES</t>
         </is>
       </c>
-      <c r="F3" s="122" t="inlineStr">
-        <is>
-          <t>DD/MM/YY to DD/MM/YY</t>
-        </is>
-      </c>
+      <c r="F3" s="122" t="inlineStr"/>
       <c r="G3" s="150" t="n"/>
     </row>
     <row r="4">

--- a/financials/PolicyEngine_Pritzker_Budget.xlsx
+++ b/financials/PolicyEngine_Pritzker_Budget.xlsx
@@ -2392,46 +2392,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="21" customHeight="1">
-      <c r="A1" s="126" t="inlineStr">
-        <is>
-          <t>BUDGET NARRATIVE
-PolicyEngine Policy Analysis Expansion
-Grant Period: November 1, 2025 - October 31, 2026
-Total Budget: $150,000
-PERSONNEL (Salaries + Benefits): $90,000 (60%)
-Staff time allocated to project deliverables:
-- Child Poverty Impact Dashboard development and testing
-- Implementation of 50-state TANF and Child Care Development Fund rules
-- Training sessions and webinars for national and state partners
-- Technical assistance and analytical support
-Personnel includes:
-- Policy modeling staff for state rules implementation
-- Software engineers for dashboard development
-- Project coordination and partnership management
-- Quality assurance and validation
-CONTRACTOR PAYMENTS: $40,000 (26.7%)
-Specialized expertise for:
-- State policy research and documentation across all 50 states
-- Technical infrastructure development
-- Policy validation and expert review
-- Training content development
-SOFTWARE &amp; INFRASTRUCTURE: $10,000 (6.7%)
-- Cloud hosting and computing resources for modeling platform
-- Development tools and software licenses
-- Data storage and backup systems
-TRAVEL &amp; TRAINING: $5,000 (3.3%)
-- Webinar platform and tools for training delivery to 30+ states
-- Virtual meeting technology for partner consultations
-- Potential in-person meetings with key partners if needed
-INDIRECT COSTS: $13,636 (9.1%)
-Administrative overhead calculated at 10% de minimis rate (per 2 CFR 200.414), covering:
-- Administrative support
-- Financial management
-- Legal and compliance
-- General operating expenses
-Total expenses balance to $158,636, which exceeds the $150,000 request. The budget should be adjusted to total exactly $150,000 or provide additional funding sources.</t>
-        </is>
-      </c>
+      <c r="A1" s="126" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="71" t="n"/>
@@ -2456,7 +2417,7 @@
       </c>
       <c r="B4" s="84" t="inlineStr">
         <is>
-          <t>E.g., The grant proposal includes the salaries and benefits for the following employees: 10% for executive director, 25% for deputy director, and 50% for the childhood success outreach director.</t>
+          <t>Staff time for project implementation: Policy modeling staff (50% FTE) for implementing 50-state TANF and CCDF rules, software engineers (30% FTE) for Child Poverty Impact Dashboard development, project coordination (20% FTE) for partnership management and training delivery, and quality assurance (10% FTE) for validation.</t>
         </is>
       </c>
     </row>
@@ -2465,28 +2426,44 @@
         <f>Budget!A8</f>
         <v/>
       </c>
-      <c r="B5" s="85" t="n"/>
+      <c r="B5" s="85" t="inlineStr">
+        <is>
+          <t>Specialized contractors for: state policy research and documentation across all 50 states, technical infrastructure development, policy validation and expert review, and training content development.</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="83">
         <f>Budget!A9</f>
         <v/>
       </c>
-      <c r="B6" s="85" t="n"/>
+      <c r="B6" s="85" t="inlineStr">
+        <is>
+          <t>Cloud hosting and computing resources for modeling platform, development tools and software licenses, and data storage and backup systems supporting the dashboard and 50-state modeling infrastructure.</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="86">
         <f>Budget!A10</f>
         <v/>
       </c>
-      <c r="B7" s="85" t="n"/>
+      <c r="B7" s="85" t="inlineStr">
+        <is>
+          <t>Webinar platform and tools for training delivery to leaders in 30+ states, virtual meeting technology for partner consultations with Niskanen Center and PN-3 Policy Impact Center, and potential travel for in-person meetings if needed.</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="86">
         <f>Budget!A11</f>
         <v/>
       </c>
-      <c r="B8" s="85" t="n"/>
+      <c r="B8" s="85" t="inlineStr">
+        <is>
+          <t>Administrative overhead calculated at 10% de minimis rate per 2 CFR 200.414, covering administrative support, financial management, legal compliance, and general operating expenses.</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="86">

--- a/financials/PolicyEngine_Pritzker_Budget.xlsx
+++ b/financials/PolicyEngine_Pritzker_Budget.xlsx
@@ -2161,10 +2161,8 @@
           <t>Total Org. Revenue***</t>
         </is>
       </c>
-      <c r="B37" s="163" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
+      <c r="B37" s="163" t="n">
+        <v>1000000</v>
       </c>
       <c r="D37" s="32" t="inlineStr">
         <is>
